--- a/soberano/test_cases/material_expense_record_test_cases.xlsx
+++ b/soberano/test_cases/material_expense_record_test_cases.xlsx
@@ -287,11 +287,11 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G49" activeCellId="0" sqref="G49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="18:18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.11"/>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>37</v>

--- a/soberano/test_cases/material_expense_record_test_cases.xlsx
+++ b/soberano/test_cases/material_expense_record_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="52">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -154,22 +154,28 @@
     <t xml:space="preserve">l</t>
   </si>
   <si>
+    <t xml:space="preserve">It fails due to wrong values since user 18 is a salesclerk. Hence, user 18 can not retrieve  providers, materials, so can't populate the corresponding combos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unauthorized user18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorized user1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It fails due to not enough rights.</t>
+  </si>
+  <si>
     <t xml:space="preserve">It fails due to negative values.</t>
   </si>
   <si>
-    <t xml:space="preserve">Unauthorized user18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authorized user1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It fails due to not enough rights.</t>
+    <t xml:space="preserve">check recorded expenses</t>
   </si>
 </sst>
 </file>
@@ -251,7 +257,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,6 +271,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,13 +295,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="18:18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.11"/>
@@ -820,7 +830,7 @@
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -1005,7 +1015,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>45</v>
@@ -1259,7 +1269,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>45</v>
@@ -1402,7 +1412,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>37</v>
@@ -1437,7 +1447,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>48</v>
@@ -1475,7 +1485,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>41</v>
@@ -1513,7 +1523,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>45</v>
@@ -1621,7 +1631,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>37</v>
@@ -1766,8 +1776,8 @@
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>49</v>
+      <c r="B41" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>45</v>
@@ -1805,7 +1815,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>37</v>
@@ -1843,7 +1853,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>41</v>
@@ -1915,8 +1925,8 @@
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>49</v>
+      <c r="B45" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>45</v>
@@ -1954,7 +1964,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>37</v>
@@ -1988,8 +1998,8 @@
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>49</v>
+      <c r="B47" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>45</v>
@@ -2055,6 +2065,14 @@
       </c>
       <c r="L48" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/soberano/test_cases/material_expense_record_test_cases.xlsx
+++ b/soberano/test_cases/material_expense_record_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="53">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days before current day</t>
   </si>
   <si>
     <t xml:space="preserve">Provider</t>
@@ -295,26 +298,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,11 +352,14 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,28 +367,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="1" t="n">
+        <v>-9</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>1.000001</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>1E-006</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -390,7 +397,10 @@
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,25 +408,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>1.000001</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>1E-006</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -425,7 +435,10 @@
         <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,25 +446,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="D4" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>1.000001</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="n">
         <v>1E-006</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -460,7 +473,10 @@
         <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,25 +484,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="1" t="n">
+        <v>-9</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="n">
         <v>1E-006</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -495,7 +511,10 @@
         <v>19</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,25 +522,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D6" s="1" t="n">
+        <v>-9</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>1.000001</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="I6" s="2" t="n">
         <v>1E-006</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
@@ -530,7 +549,10 @@
         <v>19</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -538,27 +560,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="1" t="n">
+        <v>-9</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>1.000001</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
@@ -566,7 +588,10 @@
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,34 +599,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="1" t="n">
+        <v>-9</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>1.000001</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="n">
         <v>1E-006</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,37 +637,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D9" s="1" t="n">
+        <v>-11</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>1.000001</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="n">
         <v>1E-006</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,28 +678,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>1.000001</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="n">
         <v>1E-006</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
@@ -677,7 +708,10 @@
         <v>19</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,37 +719,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>-9</v>
+      </c>
       <c r="E11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>1.000001</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3" t="n">
         <v>-2000</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,34 +760,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="0" t="s">
         <v>33</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>-9</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>1E-006</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3" t="n">
         <v>1E-006</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
+      <c r="J12" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,34 +798,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>-9</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="3" t="n">
         <v>-2000</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>19</v>
+      <c r="J13" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,37 +836,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>-9</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>-2000</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="J14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,34 +877,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>-9</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>-2000</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="3" t="n">
         <v>-2000</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>19</v>
+      <c r="J15" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,37 +915,40 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="3" t="n">
+      <c r="I16" s="3" t="n">
         <v>1E-006</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="J16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,34 +956,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>-8</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>3000000</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="3" t="n">
         <v>3000000</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>19</v>
+      <c r="J17" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,37 +994,40 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,37 +1035,40 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>-8</v>
+      </c>
       <c r="E19" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>3000000</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="3" t="n">
         <v>1.000001</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="J19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,34 +1076,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>-7</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>1E-006</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>19</v>
+      <c r="J20" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,34 +1114,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>-7</v>
+      </c>
       <c r="E21" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="0" t="n">
         <v>-2000</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>19</v>
+      <c r="J21" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,34 +1152,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>-7</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="3" t="n">
+      <c r="H22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>19</v>
+      <c r="J22" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,37 +1190,40 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>-7</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>3000000</v>
       </c>
-      <c r="G23" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="3" t="n">
         <v>1</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,34 +1231,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>-6</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>3000000</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="3" t="n">
         <v>1E-006</v>
       </c>
-      <c r="I24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>19</v>
+      <c r="J24" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,37 +1269,40 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="3" t="n">
+      <c r="I25" s="3" t="n">
         <v>3000000</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="J25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,37 +1310,40 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="J26" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>-2000</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,34 +1351,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>-5</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>1.000001</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>19</v>
+      <c r="J27" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,37 +1389,40 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>-5</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="0" t="n">
         <v>1.000001</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="3" t="n">
+      <c r="H28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="3" t="n">
         <v>1E-006</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="J28" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,34 +1430,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="D29" s="0" t="n">
+        <v>-4</v>
+      </c>
       <c r="E29" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="0" t="n">
         <v>1.000001</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="3" t="n">
         <v>3000000</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>19</v>
+      <c r="J29" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,34 +1468,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>-4</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="3" t="n">
+      <c r="H30" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="3" t="n">
         <v>3000000</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>19</v>
+      <c r="J30" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,34 +1506,37 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>-3</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>-2000</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="3" t="n">
+      <c r="H31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="3" t="n">
         <v>3000000</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>19</v>
+      <c r="J31" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,37 +1544,40 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>-3</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="0" t="n">
         <v>-2000</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="3" t="n">
+      <c r="H32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="3" t="n">
         <v>1E-006</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="J32" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,37 +1585,40 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>-3</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="3" t="n">
+      <c r="H33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="3" t="n">
         <v>2000</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,34 +1626,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>-3</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="3" t="n">
+      <c r="H34" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="3" t="n">
         <v>-2000</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>19</v>
+      <c r="J34" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,34 +1664,37 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="D35" s="0" t="n">
+        <v>-3</v>
+      </c>
       <c r="E35" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="0" t="n">
         <v>3000000</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="3" t="n">
+      <c r="H35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>19</v>
+      <c r="J35" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,37 +1702,40 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="3" t="n">
+      <c r="I36" s="3" t="n">
         <v>1E-006</v>
       </c>
-      <c r="I36" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="J36" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,34 +1743,37 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>-3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="0" t="n">
         <v>1.000001</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="3" t="n">
+      <c r="H37" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="3" t="n">
         <v>1.000001</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>19</v>
+      <c r="J37" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,34 +1781,37 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1.000001</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J38" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>1.000001</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,37 +1819,40 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="H39" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="3" t="n">
+      <c r="I39" s="3" t="n">
         <v>1.000001</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,37 +1860,40 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>-2</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>1E-006</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="3" t="n">
+      <c r="H40" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="3" t="n">
         <v>3000000</v>
       </c>
-      <c r="I40" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="J40" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,37 +1901,40 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="H41" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="3" t="n">
+      <c r="I41" s="3" t="n">
         <v>-2000</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,37 +1942,40 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H42" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="I42" s="3" t="n">
+        <v>1.000001</v>
+      </c>
+      <c r="J42" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>1.000001</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,37 +1983,40 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>1.000001</v>
+      </c>
+      <c r="J43" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>-2000</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>1.000001</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,34 +2024,37 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>-2</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="3" t="n">
+      <c r="H44" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I44" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>19</v>
+      <c r="J44" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,37 +2062,40 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>-2</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G45" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" s="3" t="n">
+      <c r="H45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="3" t="n">
         <v>1.000001</v>
       </c>
-      <c r="I45" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="J45" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,34 +2103,37 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,34 +2141,37 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>-2</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G47" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="3" t="n">
+      <c r="H47" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="3" t="n">
         <v>-2000</v>
       </c>
-      <c r="I47" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>19</v>
+      <c r="J47" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,37 +2179,40 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H48" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" s="3" t="n">
+      <c r="I48" s="3" t="n">
         <v>1E-006</v>
       </c>
-      <c r="I48" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="J48" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48" s="0" t="s">
         <v>19</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,7 +2220,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/soberano/test_cases/material_expense_record_test_cases.xlsx
+++ b/soberano/test_cases/material_expense_record_test_cases.xlsx
@@ -189,7 +189,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -210,6 +210,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -260,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,6 +283,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,10 +310,10 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.11"/>
@@ -373,7 +382,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -414,7 +423,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -452,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -490,7 +499,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -528,7 +537,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -566,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
@@ -605,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -643,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -725,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>15</v>
@@ -766,7 +775,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>34</v>
@@ -804,7 +813,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>15</v>
@@ -842,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>34</v>
@@ -883,7 +892,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>15</v>
@@ -921,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>34</v>
@@ -962,7 +971,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>34</v>
@@ -1000,7 +1009,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>15</v>
@@ -1041,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>15</v>
@@ -1082,7 +1091,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>15</v>
@@ -1120,7 +1129,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>34</v>
@@ -1158,7 +1167,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>15</v>
@@ -1196,7 +1205,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>34</v>
@@ -1237,7 +1246,7 @@
         <v>38</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>15</v>
@@ -1275,7 +1284,7 @@
         <v>33</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>15</v>
@@ -1316,7 +1325,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>34</v>
@@ -1357,7 +1366,7 @@
         <v>46</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>34</v>
@@ -1395,7 +1404,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>15</v>
@@ -1436,7 +1445,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>15</v>
@@ -1474,7 +1483,7 @@
         <v>33</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>15</v>
@@ -1512,7 +1521,7 @@
         <v>38</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>34</v>
@@ -1550,7 +1559,7 @@
         <v>49</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>15</v>
@@ -1591,7 +1600,7 @@
         <v>42</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>34</v>
@@ -1632,7 +1641,7 @@
         <v>46</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>34</v>
@@ -1670,7 +1679,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>15</v>
@@ -1708,7 +1717,7 @@
         <v>33</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>34</v>
@@ -1749,7 +1758,7 @@
         <v>38</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>34</v>
@@ -1787,7 +1796,7 @@
         <v>42</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>15</v>
@@ -1825,7 +1834,7 @@
         <v>49</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>34</v>
@@ -1865,8 +1874,8 @@
       <c r="C40" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>-2</v>
+      <c r="D40" s="5" t="n">
+        <v>-1</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>34</v>
@@ -1907,7 +1916,7 @@
         <v>46</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>15</v>
@@ -1948,7 +1957,7 @@
         <v>38</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>34</v>
@@ -1989,7 +1998,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>34</v>
@@ -2030,7 +2039,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>15</v>
@@ -2068,7 +2077,7 @@
         <v>46</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>15</v>
@@ -2109,7 +2118,7 @@
         <v>38</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>34</v>
@@ -2147,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>15</v>
@@ -2185,7 +2194,7 @@
         <v>49</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>15</v>
